--- a/scripts/Data/Replication_Quarterly_Data.xlsx
+++ b/scripts/Data/Replication_Quarterly_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjoshis/Desktop/Fall 2022/ECON527 Macroeconometrics/BVAR of US Economy/Python Codes/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjoshis/Desktop/covbayesvar/scripts/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FDE6C3-9A7C-C841-A16A-C14F6189AFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0114C794-9887-CD43-A039-51BF33BACD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5580" yWindow="-27240" windowWidth="31080" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5580" yWindow="-27240" windowWidth="31080" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium Data" sheetId="1" r:id="rId1"/>
@@ -14681,8 +14681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA2101E-BF29-FF4D-9498-015134F4B76C}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15370,8 +15370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA3B69C-5151-8747-A190-BC8A095CC436}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
